--- a/docassemble/ILAOEfile/data/sources/il_courts.xlsx
+++ b/docassemble/ILAOEfile/data/sources/il_courts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="738">
   <si>
     <t xml:space="preserve">court_code</t>
   </si>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Adams</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.co.adams.il.us</t>
+    <t xml:space="preserve">https://www.co.adams.il.us/government/departments/circuit-clerk</t>
   </si>
   <si>
     <t xml:space="preserve">adams</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Bond</t>
   </si>
   <si>
-    <t xml:space="preserve">https://bondcountyil.com/bond-county-courthouse/</t>
+    <t xml:space="preserve">https://bondcountyil.gov/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">bond</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">Boone</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.17thcircuit.illinoiscourts.gov</t>
+    <t xml:space="preserve">https://boonecircuitclerk.us/</t>
   </si>
   <si>
     <t xml:space="preserve">boone</t>
@@ -190,48 +190,51 @@
     <t xml:space="preserve">Brown</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.bccircuitclerk.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bureau County Circuit Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(815) 872-2001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">700 South Main St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Princeton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://circuitclerk.bureaucounty-il.gov/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bureau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calhoun County Courthouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(618) 576-2451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101 N. County Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hardin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calhoun</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.co.adams.il.us/government/departments/judicial</t>
   </si>
   <si>
-    <t xml:space="preserve">brown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bureau County Circuit Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(815) 872-2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">700 South Main St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Princeton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bureau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://circuitclerk.bureaucounty-il.gov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bureau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calhoun County Courthouse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(618) 576-2451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101 N. County Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hardin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calhoun</t>
-  </si>
-  <si>
     <t xml:space="preserve">calhoun</t>
   </si>
   <si>
@@ -271,6 +274,9 @@
     <t xml:space="preserve">Cass</t>
   </si>
   <si>
+    <t xml:space="preserve">https://co.cass.il.us/elected-officials/circuit-court-clerk</t>
+  </si>
+  <si>
     <t xml:space="preserve">cass</t>
   </si>
   <si>
@@ -289,7 +295,7 @@
     <t xml:space="preserve">Champaign</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.co.champaign.il.us/circuitcourt/circuitcourt.php</t>
+    <t xml:space="preserve">https://www.champaigncircuitclerk.org/</t>
   </si>
   <si>
     <t xml:space="preserve">champaign</t>
@@ -310,7 +316,7 @@
     <t xml:space="preserve">Christian</t>
   </si>
   <si>
-    <t xml:space="preserve">https://fourthcircuitil.com/</t>
+    <t xml:space="preserve">https://christiancountyil.com/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">christian</t>
@@ -331,7 +337,7 @@
     <t xml:space="preserve">Clark</t>
   </si>
   <si>
-    <t xml:space="preserve">http://fifthcircuitil.com/</t>
+    <t xml:space="preserve">https://www.clarkcountyil.org/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">clark</t>
@@ -352,6 +358,9 @@
     <t xml:space="preserve">Clay</t>
   </si>
   <si>
+    <t xml:space="preserve">https://claycountyillinois.org/circuit-clerk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">clay</t>
   </si>
   <si>
@@ -370,6 +379,9 @@
     <t xml:space="preserve">Clinton</t>
   </si>
   <si>
+    <t xml:space="preserve">https://clintoncountycircuitclerk.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">clinton</t>
   </si>
   <si>
@@ -406,7 +418,7 @@
     <t xml:space="preserve">Cook</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.cookcountyclerkofcourt.org</t>
+    <t xml:space="preserve">https://www.cookcountycourt.org/</t>
   </si>
   <si>
     <t xml:space="preserve">Second Municipal District Courthouse</t>
@@ -547,6 +559,9 @@
     <t xml:space="preserve">Cumberland</t>
   </si>
   <si>
+    <t xml:space="preserve">https://cumberlandcoil.gov/circuit-clerk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">cumberland</t>
   </si>
   <si>
@@ -565,7 +580,7 @@
     <t xml:space="preserve">DeKalb</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dekalbcounty.org/</t>
+    <t xml:space="preserve">https://dekalbcounty.org/departments/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">dekalb</t>
@@ -583,7 +598,7 @@
     <t xml:space="preserve">DeWitt</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.sixthcircuitcourt.com/</t>
+    <t xml:space="preserve">https://www.dewittcountyill.com/clerk.htm</t>
   </si>
   <si>
     <t xml:space="preserve">dewitt</t>
@@ -604,6 +619,9 @@
     <t xml:space="preserve">Douglas</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.douglascountyil.gov/circuit-clerk</t>
+  </si>
+  <si>
     <t xml:space="preserve">douglas</t>
   </si>
   <si>
@@ -643,6 +661,9 @@
     <t xml:space="preserve">Edgar</t>
   </si>
   <si>
+    <t xml:space="preserve">https://edgarcountyillinois.com/offices/circuit-clerk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">edgar</t>
   </si>
   <si>
@@ -676,6 +697,9 @@
     <t xml:space="preserve">Effingham</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.co.effingham.il.us/circuit-clerk</t>
+  </si>
+  <si>
     <t xml:space="preserve">effingham</t>
   </si>
   <si>
@@ -694,6 +718,9 @@
     <t xml:space="preserve">Fayette</t>
   </si>
   <si>
+    <t xml:space="preserve">http://fayettecountyillinois.org/2159/Circuit-Clerk</t>
+  </si>
+  <si>
     <t xml:space="preserve">fayette</t>
   </si>
   <si>
@@ -712,7 +739,7 @@
     <t xml:space="preserve">Ford</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mcleancountyil.gov/581/Circuit-Court-Rules-11th-Judicial-Circui</t>
+    <t xml:space="preserve">https://fordcounty.illinois.gov/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">ford</t>
@@ -733,6 +760,9 @@
     <t xml:space="preserve">Franklin</t>
   </si>
   <si>
+    <t xml:space="preserve">https://franklincountyil.gov/circuit-clerk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">franklin</t>
   </si>
   <si>
@@ -751,7 +781,7 @@
     <t xml:space="preserve">Fulton</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.9thjudicial.org/Fulton/fulton.html</t>
+    <t xml:space="preserve">http://www.9thjudicial.org/Fulton/fulton-circuit-clerk.html</t>
   </si>
   <si>
     <t xml:space="preserve">fulton</t>
@@ -790,9 +820,6 @@
     <t xml:space="preserve">Greene</t>
   </si>
   <si>
-    <t xml:space="preserve">https://co.sangamon.il.us/departments/s-z/seventh-judicial-circuit-court</t>
-  </si>
-  <si>
     <t xml:space="preserve">greene</t>
   </si>
   <si>
@@ -811,7 +838,7 @@
     <t xml:space="preserve">Grundy</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.grundyco.org/grundy-county-courthouse/</t>
+    <t xml:space="preserve">www.grundycountyil.gov/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">grundy</t>
@@ -886,7 +913,7 @@
     <t xml:space="preserve">Henderson</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.9thjudicial.org/Henderson/henderson.html</t>
+    <t xml:space="preserve">http://www.9thjudicial.org/Henderson/henderson-circuit-clerk.html</t>
   </si>
   <si>
     <t xml:space="preserve">henderson</t>
@@ -928,7 +955,7 @@
     <t xml:space="preserve">Iroquois</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.k3county.net/21stJudicial/index.html</t>
+    <t xml:space="preserve">https://iroquoiscountyil.gov/offices/circuit-clerk</t>
   </si>
   <si>
     <t xml:space="preserve">iroquois</t>
@@ -985,6 +1012,9 @@
     <t xml:space="preserve">Jefferson</t>
   </si>
   <si>
+    <t xml:space="preserve">http://www.jeffersoncountyillinois.com/contact-circuit-clerk</t>
+  </si>
+  <si>
     <t xml:space="preserve">jefferson</t>
   </si>
   <si>
@@ -1003,6 +1033,9 @@
     <t xml:space="preserve">Jersey</t>
   </si>
   <si>
+    <t xml:space="preserve">https://jerseycounty-il.gov/</t>
+  </si>
+  <si>
     <t xml:space="preserve">jersey</t>
   </si>
   <si>
@@ -1057,7 +1090,7 @@
     <t xml:space="preserve">Kane</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.illinois16thjudicialcircuit.org/</t>
+    <t xml:space="preserve">https://cic.countyofkane.org/</t>
   </si>
   <si>
     <t xml:space="preserve">kane</t>
@@ -1075,6 +1108,9 @@
     <t xml:space="preserve">Kankakee</t>
   </si>
   <si>
+    <t xml:space="preserve">https://kankakeecountycircuitclerk.com/ </t>
+  </si>
+  <si>
     <t xml:space="preserve">kankakee</t>
   </si>
   <si>
@@ -1093,7 +1129,7 @@
     <t xml:space="preserve">Kendall</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.co.kendall.il.us/offices/judiciary</t>
+    <t xml:space="preserve">https://www.co.kendall.il.us/offices/circuit-clerk</t>
   </si>
   <si>
     <t xml:space="preserve">kendall</t>
@@ -1114,7 +1150,7 @@
     <t xml:space="preserve">Knox</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.9thjudicial.org/Knox/knox.html</t>
+    <t xml:space="preserve">https://co.knox.il.us/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">knox</t>
@@ -1135,7 +1171,7 @@
     <t xml:space="preserve">Lake</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.19thcircuitcourt.state.il.us/</t>
+    <t xml:space="preserve">https://www.lakecountycircuitclerk.org/</t>
   </si>
   <si>
     <t xml:space="preserve">lake</t>
@@ -1156,6 +1192,9 @@
     <t xml:space="preserve">LaSalle</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.lasallecounty.com/ </t>
+  </si>
+  <si>
     <t xml:space="preserve">lasalle</t>
   </si>
   <si>
@@ -1213,7 +1252,7 @@
     <t xml:space="preserve">Livingston</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.livingstoncounty-il.org/wordpress/county-services/circuit-court/</t>
+    <t xml:space="preserve">https://www.livingstoncounty-il.org/wordpress/county-services/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">livingston</t>
@@ -1234,6 +1273,9 @@
     <t xml:space="preserve">Logan</t>
   </si>
   <si>
+    <t xml:space="preserve">https://logancountyil.gov/index.php?option=com_content&amp;view=article&amp;id=168&amp;Itemid=530&amp;lang=en</t>
+  </si>
+  <si>
     <t xml:space="preserve">logan</t>
   </si>
   <si>
@@ -1252,6 +1294,9 @@
     <t xml:space="preserve">Macon</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.cclerk.co.macon.il.us/</t>
+  </si>
+  <si>
     <t xml:space="preserve">macon</t>
   </si>
   <si>
@@ -1270,6 +1315,9 @@
     <t xml:space="preserve">Macoupin</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.macoupincountyil.gov/circuit_clerk.htm</t>
+  </si>
+  <si>
     <t xml:space="preserve">macoupin</t>
   </si>
   <si>
@@ -1288,7 +1336,7 @@
     <t xml:space="preserve">Madison</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.co.madison.il.us/departments/circuit_court/index.php</t>
+    <t xml:space="preserve">https://www.co.madison.il.us/departments/circuit_clerk/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">madison</t>
@@ -1309,6 +1357,9 @@
     <t xml:space="preserve">Marion</t>
   </si>
   <si>
+    <t xml:space="preserve">https://marioncountycircuitclerk.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">marion</t>
   </si>
   <si>
@@ -1324,7 +1375,7 @@
     <t xml:space="preserve">Lacon</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.10thcircuitcourtil.org</t>
+    <t xml:space="preserve">http://marshallcountyillinois.com/elected-officials/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">marshall</t>
@@ -1345,6 +1396,9 @@
     <t xml:space="preserve">Mason</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.masoncountyil.gov/circuit.htm</t>
+  </si>
+  <si>
     <t xml:space="preserve">mason</t>
   </si>
   <si>
@@ -1381,7 +1435,7 @@
     <t xml:space="preserve">McDonough</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.9thjudicial.org/Mcdonough/mcdonough.html</t>
+    <t xml:space="preserve">http://mcg.mcdonough.il.us/circuitclerk.html</t>
   </si>
   <si>
     <t xml:space="preserve">mcdonough</t>
@@ -1402,7 +1456,7 @@
     <t xml:space="preserve">McHenry</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mchenrycountyil.gov/county-government/courts/22nd-judicial-circuit</t>
+    <t xml:space="preserve">https://www.mchenrycountyil.gov/county-government/departments-a-i/circuit-clerk</t>
   </si>
   <si>
     <t xml:space="preserve">mchenry</t>
@@ -1423,7 +1477,7 @@
     <t xml:space="preserve">McLean</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.mcleancountyil.gov/81/Circuit-Court </t>
+    <t xml:space="preserve">https://www.mcleancountyil.gov/80/Circuit-Clerk</t>
   </si>
   <si>
     <t xml:space="preserve">mclean</t>
@@ -1486,6 +1540,9 @@
     <t xml:space="preserve">Monroe</t>
   </si>
   <si>
+    <t xml:space="preserve">https://monroecountyil.gov/departments/circuit-clerk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">monroe</t>
   </si>
   <si>
@@ -1504,6 +1561,9 @@
     <t xml:space="preserve">Montgomery</t>
   </si>
   <si>
+    <t xml:space="preserve">https://montgomeryco.com/index.php/circuit-court-clerk</t>
+  </si>
+  <si>
     <t xml:space="preserve">montgomery</t>
   </si>
   <si>
@@ -1522,6 +1582,9 @@
     <t xml:space="preserve">Morgan</t>
   </si>
   <si>
+    <t xml:space="preserve">http://morgancounty-il.com/departments/circuit-clerk/</t>
+  </si>
+  <si>
     <t xml:space="preserve">morgan</t>
   </si>
   <si>
@@ -1540,6 +1603,9 @@
     <t xml:space="preserve">Moultrie</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.moultriecountyil.com/departments/circuit_clerk/index.php</t>
+  </si>
+  <si>
     <t xml:space="preserve">moultrie</t>
   </si>
   <si>
@@ -1573,6 +1639,9 @@
     <t xml:space="preserve">Peoria</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.peoriacounty.gov/1215/Circuit-Clerk</t>
+  </si>
+  <si>
     <t xml:space="preserve">peoria</t>
   </si>
   <si>
@@ -1609,6 +1678,9 @@
     <t xml:space="preserve">Piatt</t>
   </si>
   <si>
+    <t xml:space="preserve">https://piatt.gov/circuit_clerk/ </t>
+  </si>
+  <si>
     <t xml:space="preserve">piatt</t>
   </si>
   <si>
@@ -1684,7 +1756,7 @@
     <t xml:space="preserve">Putnam</t>
   </si>
   <si>
-    <t xml:space="preserve">https://10thcircuitcourtil.org/</t>
+    <t xml:space="preserve">https://www.co.putnam.il.us/county-offices/circuit-court-clerk-office</t>
   </si>
   <si>
     <t xml:space="preserve">putnam</t>
@@ -1705,7 +1777,7 @@
     <t xml:space="preserve">Randolph</t>
   </si>
   <si>
-    <t xml:space="preserve">https://am.randolphco.org/index.php/gov-menu/judicial-circuit/circuitjudge-menu</t>
+    <t xml:space="preserve">https://am.randolphco.org/index.php/gov-menu/electedofficials/circuitclerk-menu</t>
   </si>
   <si>
     <t xml:space="preserve">randolph</t>
@@ -1726,6 +1798,9 @@
     <t xml:space="preserve">Richland</t>
   </si>
   <si>
+    <t xml:space="preserve">https://richlandcountycourt.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">richland</t>
   </si>
   <si>
@@ -1741,7 +1816,7 @@
     <t xml:space="preserve">Rock Island</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rockislandcounty.org/CourtServices/Home/</t>
+    <t xml:space="preserve">http://www.rockislandcounty.org/CircuitClerk/Home/</t>
   </si>
   <si>
     <t xml:space="preserve">rockisland</t>
@@ -1801,6 +1876,9 @@
     <t xml:space="preserve">Schuyler</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.sangamoncountycircuitclerk.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">schuyler</t>
   </si>
   <si>
@@ -1855,7 +1933,7 @@
     <t xml:space="preserve">St. Clair</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.co.st-clair.il.us</t>
+    <t xml:space="preserve">https://www.co.st-clair.il.us/departments/circuit-clerk</t>
   </si>
   <si>
     <t xml:space="preserve">stclair</t>
@@ -1876,7 +1954,7 @@
     <t xml:space="preserve">Stark</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.starkcountyillinois.com/</t>
+    <t xml:space="preserve">http://www.starkcountyillinois.com/circuit-clerk/</t>
   </si>
   <si>
     <t xml:space="preserve">stark</t>
@@ -1915,7 +1993,7 @@
     <t xml:space="preserve">Tazewell</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.10thcircuitcourtil.org/</t>
+    <t xml:space="preserve">https://tazewellcountyil.com/</t>
   </si>
   <si>
     <t xml:space="preserve">tazewell</t>
@@ -1957,6 +2035,9 @@
     <t xml:space="preserve">Vermilion</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.vercounty.org/</t>
+  </si>
+  <si>
     <t xml:space="preserve">vermilion</t>
   </si>
   <si>
@@ -1990,7 +2071,7 @@
     <t xml:space="preserve">Warren</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.9thjudicial.org/Warren/warren.html</t>
+    <t xml:space="preserve">http://www.warrencountyil.com/offices/circuit-clerk</t>
   </si>
   <si>
     <t xml:space="preserve">warren</t>
@@ -2011,6 +2092,9 @@
     <t xml:space="preserve">Washington</t>
   </si>
   <si>
+    <t xml:space="preserve">https://washingtoncountycircuitclerk.com/index.htm</t>
+  </si>
+  <si>
     <t xml:space="preserve">washington</t>
   </si>
   <si>
@@ -2029,6 +2113,9 @@
     <t xml:space="preserve">Wayne</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wayneclerk.com/</t>
+  </si>
+  <si>
     <t xml:space="preserve">wayne</t>
   </si>
   <si>
@@ -2065,7 +2152,7 @@
     <t xml:space="preserve">Whiteside</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.whiteside.org/</t>
+    <t xml:space="preserve">https://www.whiteside.org/county-information/general-information/whiteside-county-courts/2008061750.html</t>
   </si>
   <si>
     <t xml:space="preserve">whiteside</t>
@@ -2086,7 +2173,7 @@
     <t xml:space="preserve">Will</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.willcountycourts.com</t>
+    <t xml:space="preserve">https://www.circuitclerkofwillcounty.com/</t>
   </si>
   <si>
     <t xml:space="preserve">will</t>
@@ -2122,6 +2209,9 @@
     <t xml:space="preserve">Winnebago</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.cc.co.winnebago.il.us/</t>
+  </si>
+  <si>
     <t xml:space="preserve">winnebago</t>
   </si>
   <si>
@@ -2140,7 +2230,7 @@
     <t xml:space="preserve">Woodford</t>
   </si>
   <si>
-    <t xml:space="preserve">http://www.woodford-county.org/</t>
+    <t xml:space="preserve">https://www.woodford-county.org/154/Clerk-of-the-Circuit-Court</t>
   </si>
   <si>
     <t xml:space="preserve">woodford</t>
@@ -2153,7 +2243,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2176,6 +2266,14 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2194,7 +2292,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2218,21 +2316,93 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0563C1"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2243,19 +2413,19 @@
   </sheetPr>
   <dimension ref="A1:U111"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E119" activeCellId="0" sqref="E119"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="2.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="3.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.78"/>
@@ -2574,11 +2744,11 @@
       <c r="P8" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="Q8" s="0" t="s">
-        <v>56</v>
+      <c r="Q8" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,19 +2756,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>26</v>
@@ -2607,13 +2777,13 @@
         <v>61053</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,19 +2791,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>26</v>
@@ -2642,13 +2812,13 @@
         <v>62691</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2656,19 +2826,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>26</v>
@@ -2677,13 +2847,13 @@
         <v>61801</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,19 +2861,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>26</v>
@@ -2712,13 +2882,13 @@
         <v>62568</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,19 +2896,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>26</v>
@@ -2747,13 +2917,13 @@
         <v>62441</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2761,19 +2931,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N14" s="0" t="s">
         <v>26</v>
@@ -2782,13 +2952,13 @@
         <v>62858</v>
       </c>
       <c r="P14" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q14" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="R14" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2796,19 +2966,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>26</v>
@@ -2817,13 +2987,13 @@
         <v>62231</v>
       </c>
       <c r="P15" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="0" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="R15" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2831,19 +3001,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N16" s="0" t="s">
         <v>26</v>
@@ -2852,13 +3022,11 @@
         <v>61920</v>
       </c>
       <c r="P16" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>103</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>22</v>
@@ -2875,13 +3043,13 @@
         <v>1</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N17" s="0" t="s">
         <v>26</v>
@@ -2890,10 +3058,10 @@
         <v>60602</v>
       </c>
       <c r="P17" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2901,7 +3069,7 @@
         <v>103</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>22</v>
@@ -2910,13 +3078,13 @@
         <v>1</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="N18" s="0" t="s">
         <v>26</v>
@@ -2925,10 +3093,10 @@
         <v>60077</v>
       </c>
       <c r="P18" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2936,7 +3104,7 @@
         <v>104</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>22</v>
@@ -2945,13 +3113,13 @@
         <v>1</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="N19" s="0" t="s">
         <v>26</v>
@@ -2960,10 +3128,10 @@
         <v>60008</v>
       </c>
       <c r="P19" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2971,7 +3139,7 @@
         <v>105</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>22</v>
@@ -2980,13 +3148,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N20" s="0" t="s">
         <v>26</v>
@@ -2995,10 +3163,10 @@
         <v>60153</v>
       </c>
       <c r="P20" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3006,7 +3174,7 @@
         <v>106</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>22</v>
@@ -3015,13 +3183,13 @@
         <v>1</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="N21" s="0" t="s">
         <v>26</v>
@@ -3030,10 +3198,10 @@
         <v>60455</v>
       </c>
       <c r="P21" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,7 +3209,7 @@
         <v>107</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>22</v>
@@ -3050,13 +3218,13 @@
         <v>1</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N22" s="0" t="s">
         <v>26</v>
@@ -3065,10 +3233,10 @@
         <v>60428</v>
       </c>
       <c r="P22" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3076,19 +3244,19 @@
         <v>108</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N23" s="0" t="s">
         <v>26</v>
@@ -3097,10 +3265,10 @@
         <v>60607</v>
       </c>
       <c r="P23" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3108,19 +3276,19 @@
         <v>109</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N24" s="0" t="s">
         <v>26</v>
@@ -3129,10 +3297,10 @@
         <v>60608</v>
       </c>
       <c r="P24" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3140,19 +3308,19 @@
         <v>110</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="N25" s="0" t="s">
         <v>26</v>
@@ -3161,10 +3329,10 @@
         <v>60612</v>
       </c>
       <c r="P25" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3172,19 +3340,19 @@
         <v>17</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N26" s="0" t="s">
         <v>26</v>
@@ -3193,13 +3361,13 @@
         <v>62454</v>
       </c>
       <c r="P26" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q26" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R26" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3207,19 +3375,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N27" s="0" t="s">
         <v>26</v>
@@ -3228,13 +3396,13 @@
         <v>62468</v>
       </c>
       <c r="P27" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="R27" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3242,19 +3410,19 @@
         <v>19</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="N28" s="0" t="s">
         <v>26</v>
@@ -3263,13 +3431,13 @@
         <v>60178</v>
       </c>
       <c r="P28" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="R28" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,19 +3445,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>26</v>
@@ -3298,13 +3466,13 @@
         <v>61727</v>
       </c>
       <c r="P29" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="R29" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,19 +3480,19 @@
         <v>21</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="N30" s="0" t="s">
         <v>26</v>
@@ -3333,13 +3501,13 @@
         <v>61953</v>
       </c>
       <c r="P30" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="0" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="R30" s="0" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3347,19 +3515,19 @@
         <v>22</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="N31" s="0" t="s">
         <v>26</v>
@@ -3368,13 +3536,13 @@
         <v>60187</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="R31" s="0" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3382,19 +3550,19 @@
         <v>23</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N32" s="0" t="s">
         <v>26</v>
@@ -3403,13 +3571,13 @@
         <v>61944</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q32" s="0" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="R32" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,19 +3585,19 @@
         <v>24</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C33" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="N33" s="0" t="s">
         <v>26</v>
@@ -3438,13 +3606,13 @@
         <v>62806</v>
       </c>
       <c r="P33" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q33" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R33" s="0" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,19 +3620,19 @@
         <v>25</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="N34" s="0" t="s">
         <v>26</v>
@@ -3473,13 +3641,13 @@
         <v>62401</v>
       </c>
       <c r="P34" s="0" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="0" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="R34" s="0" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3487,19 +3655,19 @@
         <v>26</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C35" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="N35" s="0" t="s">
         <v>26</v>
@@ -3508,13 +3676,13 @@
         <v>62471</v>
       </c>
       <c r="P35" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="0" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="R35" s="0" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,19 +3690,19 @@
         <v>27</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C36" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="N36" s="0" t="s">
         <v>26</v>
@@ -3543,13 +3711,13 @@
         <v>60957</v>
       </c>
       <c r="P36" s="0" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="Q36" s="0" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="R36" s="0" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,19 +3725,19 @@
         <v>28</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C37" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="N37" s="0" t="s">
         <v>26</v>
@@ -3578,13 +3746,13 @@
         <v>62812</v>
       </c>
       <c r="P37" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="Q37" s="0" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="R37" s="0" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3592,19 +3760,19 @@
         <v>29</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="N38" s="0" t="s">
         <v>26</v>
@@ -3613,13 +3781,13 @@
         <v>61542</v>
       </c>
       <c r="P38" s="0" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="Q38" s="0" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="R38" s="0" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3627,19 +3795,19 @@
         <v>30</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="N39" s="0" t="s">
         <v>26</v>
@@ -3648,13 +3816,13 @@
         <v>62984</v>
       </c>
       <c r="P39" s="0" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="Q39" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R39" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3662,19 +3830,19 @@
         <v>31</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C40" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="N40" s="0" t="s">
         <v>26</v>
@@ -3683,13 +3851,10 @@
         <v>62016</v>
       </c>
       <c r="P40" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q40" s="0" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="R40" s="0" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3697,19 +3862,19 @@
         <v>32</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="C41" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="N41" s="0" t="s">
         <v>26</v>
@@ -3718,13 +3883,13 @@
         <v>60450</v>
       </c>
       <c r="P41" s="0" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="Q41" s="0" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="R41" s="0" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3732,19 +3897,19 @@
         <v>33</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C42" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>26</v>
@@ -3753,13 +3918,13 @@
         <v>62859</v>
       </c>
       <c r="P42" s="0" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="Q42" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R42" s="0" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,19 +3932,19 @@
         <v>34</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C43" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N43" s="0" t="s">
         <v>26</v>
@@ -3788,13 +3953,13 @@
         <v>62321</v>
       </c>
       <c r="P43" s="0" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="Q43" s="0" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="R43" s="0" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3802,19 +3967,19 @@
         <v>35</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C44" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="N44" s="0" t="s">
         <v>26</v>
@@ -3825,11 +3990,8 @@
       <c r="P44" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="0" t="s">
-        <v>168</v>
-      </c>
       <c r="R44" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3837,19 +3999,19 @@
         <v>36</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="N45" s="0" t="s">
         <v>26</v>
@@ -3858,13 +4020,13 @@
         <v>61469</v>
       </c>
       <c r="P45" s="0" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="Q45" s="0" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="R45" s="0" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,19 +4034,19 @@
         <v>37</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C46" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="N46" s="0" t="s">
         <v>26</v>
@@ -3893,13 +4055,13 @@
         <v>61238</v>
       </c>
       <c r="P46" s="0" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="Q46" s="0" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="R46" s="0" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3907,19 +4069,19 @@
         <v>38</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="N47" s="0" t="s">
         <v>26</v>
@@ -3928,13 +4090,13 @@
         <v>60970</v>
       </c>
       <c r="P47" s="0" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q47" s="0" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="R47" s="0" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,19 +4104,19 @@
         <v>39</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C48" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="N48" s="0" t="s">
         <v>26</v>
@@ -3963,13 +4125,13 @@
         <v>62966</v>
       </c>
       <c r="P48" s="0" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="Q48" s="0" t="s">
         <v>35</v>
       </c>
       <c r="R48" s="0" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,19 +4139,19 @@
         <v>40</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="N49" s="0" t="s">
         <v>26</v>
@@ -3998,13 +4160,10 @@
         <v>62448</v>
       </c>
       <c r="P49" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q49" s="0" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="R49" s="0" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4012,19 +4171,19 @@
         <v>41</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C50" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="N50" s="0" t="s">
         <v>26</v>
@@ -4033,13 +4192,13 @@
         <v>62864</v>
       </c>
       <c r="P50" s="0" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q50" s="0" t="s">
-        <v>168</v>
+        <v>330</v>
       </c>
       <c r="R50" s="0" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,19 +4206,19 @@
         <v>42</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="N51" s="0" t="s">
         <v>26</v>
@@ -4068,13 +4227,13 @@
         <v>62052</v>
       </c>
       <c r="P51" s="0" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q51" s="0" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="R51" s="0" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,19 +4241,19 @@
         <v>43</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="N52" s="0" t="s">
         <v>26</v>
@@ -4103,13 +4262,13 @@
         <v>61036</v>
       </c>
       <c r="P52" s="0" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="Q52" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R52" s="0" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,19 +4276,19 @@
         <v>44</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="N53" s="0" t="s">
         <v>26</v>
@@ -4138,13 +4297,13 @@
         <v>62995</v>
       </c>
       <c r="P53" s="0" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="Q53" s="0" t="s">
         <v>35</v>
       </c>
       <c r="R53" s="0" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,19 +4311,19 @@
         <v>45</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="N54" s="0" t="s">
         <v>26</v>
@@ -4173,13 +4332,13 @@
         <v>60174</v>
       </c>
       <c r="P54" s="0" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="Q54" s="0" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="R54" s="0" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4187,19 +4346,19 @@
         <v>46</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="N55" s="0" t="s">
         <v>26</v>
@@ -4208,13 +4367,13 @@
         <v>60901</v>
       </c>
       <c r="P55" s="0" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q55" s="0" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="R55" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,19 +4381,19 @@
         <v>47</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="N56" s="0" t="s">
         <v>26</v>
@@ -4243,13 +4402,13 @@
         <v>60543</v>
       </c>
       <c r="P56" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="Q56" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="R56" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,19 +4416,19 @@
         <v>48</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="N57" s="0" t="s">
         <v>26</v>
@@ -4278,13 +4437,13 @@
         <v>61401</v>
       </c>
       <c r="P57" s="0" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="Q57" s="0" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="R57" s="0" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4292,19 +4451,19 @@
         <v>49</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="N58" s="0" t="s">
         <v>26</v>
@@ -4313,13 +4472,13 @@
         <v>60085</v>
       </c>
       <c r="P58" s="0" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="Q58" s="0" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="R58" s="0" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4327,19 +4486,19 @@
         <v>50</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="N59" s="0" t="s">
         <v>26</v>
@@ -4348,10 +4507,13 @@
         <v>61350</v>
       </c>
       <c r="P59" s="0" t="s">
-        <v>377</v>
+        <v>389</v>
+      </c>
+      <c r="Q59" s="0" t="s">
+        <v>390</v>
       </c>
       <c r="R59" s="0" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4359,19 +4521,19 @@
         <v>51</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="N60" s="0" t="s">
         <v>26</v>
@@ -4380,13 +4542,10 @@
         <v>62439</v>
       </c>
       <c r="P60" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q60" s="0" t="s">
-        <v>168</v>
+        <v>396</v>
       </c>
       <c r="R60" s="0" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4394,19 +4553,19 @@
         <v>52</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="N61" s="0" t="s">
         <v>26</v>
@@ -4415,13 +4574,13 @@
         <v>61021</v>
       </c>
       <c r="P61" s="0" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="Q61" s="0" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="R61" s="0" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4429,19 +4588,19 @@
         <v>53</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="N62" s="0" t="s">
         <v>26</v>
@@ -4450,13 +4609,13 @@
         <v>61764</v>
       </c>
       <c r="P62" s="0" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="Q62" s="0" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="R62" s="0" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,19 +4623,19 @@
         <v>54</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H63" s="0" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="N63" s="0" t="s">
         <v>26</v>
@@ -4485,13 +4644,13 @@
         <v>62656</v>
       </c>
       <c r="P63" s="0" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="Q63" s="0" t="s">
-        <v>230</v>
+        <v>417</v>
       </c>
       <c r="R63" s="0" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4499,19 +4658,19 @@
         <v>55</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H64" s="0" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="N64" s="0" t="s">
         <v>26</v>
@@ -4520,13 +4679,13 @@
         <v>62523</v>
       </c>
       <c r="P64" s="0" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="Q64" s="0" t="s">
-        <v>187</v>
+        <v>424</v>
       </c>
       <c r="R64" s="0" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4534,19 +4693,19 @@
         <v>56</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="N65" s="0" t="s">
         <v>26</v>
@@ -4555,13 +4714,13 @@
         <v>62626</v>
       </c>
       <c r="P65" s="0" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Q65" s="0" t="s">
-        <v>256</v>
+        <v>431</v>
       </c>
       <c r="R65" s="0" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,19 +4728,19 @@
         <v>57</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="N66" s="0" t="s">
         <v>26</v>
@@ -4590,13 +4749,13 @@
         <v>62025</v>
       </c>
       <c r="P66" s="0" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="Q66" s="0" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="R66" s="0" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,19 +4763,19 @@
         <v>58</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H67" s="0" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="N67" s="0" t="s">
         <v>26</v>
@@ -4625,13 +4784,13 @@
         <v>62881</v>
       </c>
       <c r="P67" s="0" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="Q67" s="0" t="s">
-        <v>96</v>
+        <v>445</v>
       </c>
       <c r="R67" s="0" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4639,19 +4798,19 @@
         <v>59</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="N68" s="0" t="s">
         <v>26</v>
@@ -4660,13 +4819,13 @@
         <v>61540</v>
       </c>
       <c r="P68" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q68" s="0" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="R68" s="0" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,19 +4833,19 @@
         <v>60</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="N69" s="0" t="s">
         <v>26</v>
@@ -4695,13 +4854,13 @@
         <v>62644</v>
       </c>
       <c r="P69" s="0" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q69" s="0" t="s">
-        <v>56</v>
+        <v>458</v>
       </c>
       <c r="R69" s="0" t="s">
-        <v>441</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4709,19 +4868,19 @@
         <v>61</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>443</v>
+        <v>461</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="N70" s="0" t="s">
         <v>26</v>
@@ -4730,13 +4889,13 @@
         <v>62960</v>
       </c>
       <c r="P70" s="0" t="s">
-        <v>446</v>
+        <v>464</v>
       </c>
       <c r="Q70" s="0" t="s">
         <v>35</v>
       </c>
       <c r="R70" s="0" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,19 +4903,19 @@
         <v>62</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="C71" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="N71" s="0" t="s">
         <v>26</v>
@@ -4765,13 +4924,13 @@
         <v>61455</v>
       </c>
       <c r="P71" s="0" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="Q71" s="0" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="R71" s="0" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4779,19 +4938,19 @@
         <v>63</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="C72" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="N72" s="0" t="s">
         <v>26</v>
@@ -4800,13 +4959,13 @@
         <v>60098</v>
       </c>
       <c r="P72" s="0" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="Q72" s="0" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="R72" s="0" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,19 +4973,19 @@
         <v>64</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
       <c r="N73" s="0" t="s">
         <v>26</v>
@@ -4835,13 +4994,13 @@
         <v>61701</v>
       </c>
       <c r="P73" s="0" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
       <c r="Q73" s="0" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="R73" s="0" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4849,19 +5008,19 @@
         <v>65</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
       <c r="C74" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
       <c r="N74" s="0" t="s">
         <v>26</v>
@@ -4870,13 +5029,13 @@
         <v>62675</v>
       </c>
       <c r="P74" s="0" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="Q74" s="0" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="R74" s="0" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4884,19 +5043,19 @@
         <v>66</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="N75" s="0" t="s">
         <v>26</v>
@@ -4905,13 +5064,13 @@
         <v>61231</v>
       </c>
       <c r="P75" s="0" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
       <c r="Q75" s="0" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="R75" s="0" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,19 +5078,19 @@
         <v>67</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="M76" s="0" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="N76" s="0" t="s">
         <v>26</v>
@@ -4940,10 +5099,13 @@
         <v>62298</v>
       </c>
       <c r="P76" s="0" t="s">
-        <v>487</v>
+        <v>505</v>
+      </c>
+      <c r="Q76" s="0" t="s">
+        <v>506</v>
       </c>
       <c r="R76" s="0" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4951,19 +5113,19 @@
         <v>68</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="N77" s="0" t="s">
         <v>26</v>
@@ -4972,13 +5134,13 @@
         <v>62049</v>
       </c>
       <c r="P77" s="0" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="Q77" s="0" t="s">
-        <v>96</v>
+        <v>513</v>
       </c>
       <c r="R77" s="0" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4986,19 +5148,19 @@
         <v>69</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="N78" s="0" t="s">
         <v>26</v>
@@ -5007,13 +5169,13 @@
         <v>62650</v>
       </c>
       <c r="P78" s="0" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="Q78" s="0" t="s">
-        <v>256</v>
+        <v>520</v>
       </c>
       <c r="R78" s="0" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5021,19 +5183,19 @@
         <v>70</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="N79" s="0" t="s">
         <v>26</v>
@@ -5042,13 +5204,13 @@
         <v>61951</v>
       </c>
       <c r="P79" s="0" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="Q79" s="0" t="s">
-        <v>187</v>
+        <v>527</v>
       </c>
       <c r="R79" s="0" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,19 +5218,19 @@
         <v>71</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
       <c r="N80" s="0" t="s">
         <v>26</v>
@@ -5077,13 +5239,13 @@
         <v>61061</v>
       </c>
       <c r="P80" s="0" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="Q80" s="0" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="R80" s="0" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5091,19 +5253,19 @@
         <v>72</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="C81" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="N81" s="0" t="s">
         <v>26</v>
@@ -5112,13 +5274,13 @@
         <v>61602</v>
       </c>
       <c r="P81" s="0" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="Q81" s="0" t="s">
-        <v>434</v>
+        <v>539</v>
       </c>
       <c r="R81" s="0" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,19 +5288,19 @@
         <v>73</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H82" s="0" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="N82" s="0" t="s">
         <v>26</v>
@@ -5147,10 +5309,10 @@
         <v>62274</v>
       </c>
       <c r="P82" s="0" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="R82" s="0" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,19 +5320,19 @@
         <v>74</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="N83" s="0" t="s">
         <v>26</v>
@@ -5179,13 +5341,13 @@
         <v>61856</v>
       </c>
       <c r="P83" s="0" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="Q83" s="0" t="s">
-        <v>187</v>
+        <v>552</v>
       </c>
       <c r="R83" s="0" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,19 +5355,19 @@
         <v>75</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H84" s="0" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="N84" s="0" t="s">
         <v>26</v>
@@ -5214,13 +5376,13 @@
         <v>62363</v>
       </c>
       <c r="P84" s="0" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="Q84" s="0" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="R84" s="0" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5228,19 +5390,19 @@
         <v>76</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H85" s="0" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="N85" s="0" t="s">
         <v>26</v>
@@ -5249,13 +5411,13 @@
         <v>62938</v>
       </c>
       <c r="P85" s="0" t="s">
-        <v>541</v>
+        <v>565</v>
       </c>
       <c r="Q85" s="0" t="s">
         <v>35</v>
       </c>
       <c r="R85" s="0" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5263,19 +5425,19 @@
         <v>77</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="C86" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H86" s="0" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>546</v>
+        <v>570</v>
       </c>
       <c r="N86" s="0" t="s">
         <v>26</v>
@@ -5284,13 +5446,13 @@
         <v>62963</v>
       </c>
       <c r="P86" s="0" t="s">
-        <v>547</v>
+        <v>571</v>
       </c>
       <c r="Q86" s="0" t="s">
         <v>35</v>
       </c>
       <c r="R86" s="0" t="s">
-        <v>548</v>
+        <v>572</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5298,19 +5460,19 @@
         <v>78</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>549</v>
+        <v>573</v>
       </c>
       <c r="C87" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H87" s="0" t="s">
-        <v>550</v>
+        <v>574</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>551</v>
+        <v>575</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>552</v>
+        <v>576</v>
       </c>
       <c r="N87" s="0" t="s">
         <v>26</v>
@@ -5319,13 +5481,13 @@
         <v>61327</v>
       </c>
       <c r="P87" s="0" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="Q87" s="0" t="s">
-        <v>554</v>
+        <v>578</v>
       </c>
       <c r="R87" s="0" t="s">
-        <v>555</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,19 +5495,19 @@
         <v>79</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>556</v>
+        <v>580</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H88" s="0" t="s">
-        <v>557</v>
+        <v>581</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>559</v>
+        <v>583</v>
       </c>
       <c r="N88" s="0" t="s">
         <v>26</v>
@@ -5354,13 +5516,13 @@
         <v>62233</v>
       </c>
       <c r="P88" s="0" t="s">
-        <v>560</v>
+        <v>584</v>
       </c>
       <c r="Q88" s="0" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
       <c r="R88" s="0" t="s">
-        <v>562</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,19 +5530,19 @@
         <v>80</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>563</v>
+        <v>587</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H89" s="0" t="s">
-        <v>564</v>
+        <v>588</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>565</v>
+        <v>589</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>566</v>
+        <v>590</v>
       </c>
       <c r="N89" s="0" t="s">
         <v>26</v>
@@ -5389,13 +5551,13 @@
         <v>62450</v>
       </c>
       <c r="P89" s="0" t="s">
-        <v>567</v>
+        <v>591</v>
       </c>
       <c r="Q89" s="0" t="s">
-        <v>168</v>
+        <v>592</v>
       </c>
       <c r="R89" s="0" t="s">
-        <v>568</v>
+        <v>593</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,19 +5565,19 @@
         <v>81</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>569</v>
+        <v>594</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H90" s="0" t="s">
-        <v>570</v>
+        <v>595</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>571</v>
+        <v>596</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="N90" s="0" t="s">
         <v>26</v>
@@ -5424,13 +5586,13 @@
         <v>61201</v>
       </c>
       <c r="P90" s="0" t="s">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="Q90" s="0" t="s">
-        <v>573</v>
+        <v>598</v>
       </c>
       <c r="R90" s="0" t="s">
-        <v>574</v>
+        <v>599</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5438,19 +5600,19 @@
         <v>82</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="C91" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>578</v>
+        <v>603</v>
       </c>
       <c r="N91" s="0" t="s">
         <v>26</v>
@@ -5459,13 +5621,13 @@
         <v>62946</v>
       </c>
       <c r="P91" s="0" t="s">
-        <v>579</v>
+        <v>604</v>
       </c>
       <c r="Q91" s="0" t="s">
         <v>35</v>
       </c>
       <c r="R91" s="0" t="s">
-        <v>580</v>
+        <v>605</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5473,19 +5635,19 @@
         <v>83</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>581</v>
+        <v>606</v>
       </c>
       <c r="C92" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>584</v>
+        <v>609</v>
       </c>
       <c r="N92" s="0" t="s">
         <v>26</v>
@@ -5494,13 +5656,13 @@
         <v>62701</v>
       </c>
       <c r="P92" s="0" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="Q92" s="0" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="R92" s="0" t="s">
-        <v>587</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5508,19 +5670,19 @@
         <v>84</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H93" s="0" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>591</v>
+        <v>616</v>
       </c>
       <c r="N93" s="0" t="s">
         <v>26</v>
@@ -5529,13 +5691,13 @@
         <v>62681</v>
       </c>
       <c r="P93" s="0" t="s">
-        <v>592</v>
+        <v>617</v>
       </c>
       <c r="Q93" s="0" t="s">
-        <v>56</v>
+        <v>618</v>
       </c>
       <c r="R93" s="0" t="s">
-        <v>593</v>
+        <v>619</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5543,19 +5705,19 @@
         <v>85</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>594</v>
+        <v>620</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H94" s="0" t="s">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>596</v>
+        <v>622</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="N94" s="0" t="s">
         <v>26</v>
@@ -5564,13 +5726,10 @@
         <v>62694</v>
       </c>
       <c r="P94" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q94" s="0" t="s">
-        <v>256</v>
+        <v>624</v>
       </c>
       <c r="R94" s="0" t="s">
-        <v>599</v>
+        <v>625</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5578,19 +5737,19 @@
         <v>86</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>600</v>
+        <v>626</v>
       </c>
       <c r="C95" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>602</v>
+        <v>628</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="N95" s="0" t="s">
         <v>26</v>
@@ -5599,13 +5758,10 @@
         <v>62565</v>
       </c>
       <c r="P95" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q95" s="0" t="s">
-        <v>96</v>
+        <v>630</v>
       </c>
       <c r="R95" s="0" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,19 +5769,19 @@
         <v>87</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C96" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H96" s="0" t="s">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="N96" s="0" t="s">
         <v>26</v>
@@ -5634,13 +5790,13 @@
         <v>62220</v>
       </c>
       <c r="P96" s="0" t="s">
-        <v>610</v>
+        <v>636</v>
       </c>
       <c r="Q96" s="0" t="s">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="R96" s="0" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,19 +5804,19 @@
         <v>88</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H97" s="0" t="s">
-        <v>614</v>
+        <v>640</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="N97" s="0" t="s">
         <v>26</v>
@@ -5669,13 +5825,13 @@
         <v>61483</v>
       </c>
       <c r="P97" s="0" t="s">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="Q97" s="0" t="s">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="R97" s="0" t="s">
-        <v>619</v>
+        <v>645</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5683,19 +5839,19 @@
         <v>89</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>620</v>
+        <v>646</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H98" s="0" t="s">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>622</v>
+        <v>648</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="N98" s="0" t="s">
         <v>26</v>
@@ -5704,13 +5860,13 @@
         <v>61032</v>
       </c>
       <c r="P98" s="0" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="Q98" s="0" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="R98" s="0" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,19 +5874,19 @@
         <v>90</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H99" s="0" t="s">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="N99" s="0" t="s">
         <v>26</v>
@@ -5739,13 +5895,13 @@
         <v>61554</v>
       </c>
       <c r="P99" s="0" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="Q99" s="0" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="R99" s="0" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5753,19 +5909,19 @@
         <v>91</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="N100" s="0" t="s">
         <v>26</v>
@@ -5774,13 +5930,13 @@
         <v>62952</v>
       </c>
       <c r="P100" s="0" t="s">
-        <v>637</v>
+        <v>663</v>
       </c>
       <c r="Q100" s="0" t="s">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="R100" s="0" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,19 +5944,19 @@
         <v>92</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="C101" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H101" s="0" t="s">
-        <v>641</v>
+        <v>667</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>643</v>
+        <v>669</v>
       </c>
       <c r="N101" s="0" t="s">
         <v>26</v>
@@ -5809,13 +5965,13 @@
         <v>61832</v>
       </c>
       <c r="P101" s="0" t="s">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="Q101" s="0" t="s">
-        <v>103</v>
+        <v>671</v>
       </c>
       <c r="R101" s="0" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5823,19 +5979,19 @@
         <v>93</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="C102" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H102" s="0" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
       <c r="N102" s="0" t="s">
         <v>26</v>
@@ -5844,13 +6000,13 @@
         <v>62863</v>
       </c>
       <c r="P102" s="0" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="Q102" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R102" s="0" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,19 +6014,19 @@
         <v>94</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="C103" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="N103" s="0" t="s">
         <v>26</v>
@@ -5879,13 +6035,13 @@
         <v>61462</v>
       </c>
       <c r="P103" s="0" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="Q103" s="0" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="R103" s="0" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5893,19 +6049,19 @@
         <v>95</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="C104" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H104" s="0" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="N104" s="0" t="s">
         <v>26</v>
@@ -5914,10 +6070,13 @@
         <v>62263</v>
       </c>
       <c r="P104" s="0" t="s">
-        <v>662</v>
+        <v>689</v>
+      </c>
+      <c r="Q104" s="0" t="s">
+        <v>690</v>
       </c>
       <c r="R104" s="0" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,19 +6084,19 @@
         <v>96</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
       <c r="C105" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H105" s="0" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
       <c r="N105" s="0" t="s">
         <v>26</v>
@@ -5946,13 +6105,13 @@
         <v>62837</v>
       </c>
       <c r="P105" s="0" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="Q105" s="0" t="s">
-        <v>168</v>
+        <v>697</v>
       </c>
       <c r="R105" s="0" t="s">
-        <v>669</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,19 +6119,19 @@
         <v>97</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>670</v>
+        <v>699</v>
       </c>
       <c r="C106" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H106" s="0" t="s">
-        <v>671</v>
+        <v>700</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>673</v>
+        <v>702</v>
       </c>
       <c r="N106" s="0" t="s">
         <v>26</v>
@@ -5981,13 +6140,13 @@
         <v>62821</v>
       </c>
       <c r="P106" s="0" t="s">
-        <v>674</v>
+        <v>703</v>
       </c>
       <c r="Q106" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="R106" s="0" t="s">
-        <v>675</v>
+        <v>704</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5995,19 +6154,19 @@
         <v>98</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>676</v>
+        <v>705</v>
       </c>
       <c r="C107" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H107" s="0" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>678</v>
+        <v>707</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>679</v>
+        <v>708</v>
       </c>
       <c r="N107" s="0" t="s">
         <v>26</v>
@@ -6016,13 +6175,13 @@
         <v>61270</v>
       </c>
       <c r="P107" s="0" t="s">
-        <v>680</v>
+        <v>709</v>
       </c>
       <c r="Q107" s="0" t="s">
-        <v>681</v>
+        <v>710</v>
       </c>
       <c r="R107" s="0" t="s">
-        <v>682</v>
+        <v>711</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,19 +6189,19 @@
         <v>99</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>683</v>
+        <v>712</v>
       </c>
       <c r="C108" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>684</v>
+        <v>713</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>685</v>
+        <v>714</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>686</v>
+        <v>715</v>
       </c>
       <c r="N108" s="0" t="s">
         <v>26</v>
@@ -6051,13 +6210,13 @@
         <v>60432</v>
       </c>
       <c r="P108" s="0" t="s">
-        <v>687</v>
+        <v>716</v>
       </c>
       <c r="Q108" s="0" t="s">
-        <v>688</v>
+        <v>717</v>
       </c>
       <c r="R108" s="0" t="s">
-        <v>689</v>
+        <v>718</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6065,19 +6224,19 @@
         <v>100</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>690</v>
+        <v>719</v>
       </c>
       <c r="C109" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>691</v>
+        <v>720</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>692</v>
+        <v>721</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="N109" s="0" t="s">
         <v>26</v>
@@ -6086,13 +6245,13 @@
         <v>62959</v>
       </c>
       <c r="P109" s="0" t="s">
-        <v>693</v>
+        <v>722</v>
       </c>
       <c r="Q109" s="0" t="s">
         <v>35</v>
       </c>
       <c r="R109" s="0" t="s">
-        <v>694</v>
+        <v>723</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6100,19 +6259,19 @@
         <v>101</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>695</v>
+        <v>724</v>
       </c>
       <c r="C110" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H110" s="0" t="s">
-        <v>696</v>
+        <v>725</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>697</v>
+        <v>726</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>698</v>
+        <v>727</v>
       </c>
       <c r="N110" s="0" t="s">
         <v>26</v>
@@ -6121,13 +6280,13 @@
         <v>61101</v>
       </c>
       <c r="P110" s="0" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="Q110" s="0" t="s">
-        <v>49</v>
+        <v>729</v>
       </c>
       <c r="R110" s="0" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,19 +6294,19 @@
         <v>102</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="C111" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H111" s="0" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="N111" s="0" t="s">
         <v>26</v>
@@ -6156,13 +6315,13 @@
         <v>61530</v>
       </c>
       <c r="P111" s="0" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="Q111" s="0" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="R111" s="0" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
     </row>
   </sheetData>

--- a/docassemble/ILAOEfile/data/sources/il_courts.xlsx
+++ b/docassemble/ILAOEfile/data/sources/il_courts.xlsx
@@ -643,7 +643,7 @@
     <t xml:space="preserve">https://www.dupageco.org/courts/</t>
   </si>
   <si>
-    <t xml:space="preserve">dupageinteg</t>
+    <t xml:space="preserve">dupage</t>
   </si>
   <si>
     <t xml:space="preserve">Edgar County Courthouse</t>
@@ -2414,12 +2414,12 @@
   <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
+      <selection pane="bottomLeft" activeCell="S36" activeCellId="0" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.86"/>
